--- a/assets/template/month.xlsx
+++ b/assets/template/month.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\qc\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CA2FC3-CFB8-4688-8E2D-B6B465FA006B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA89A73-9880-4EAF-8AE8-02940B441962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <t xml:space="preserve">Tên sản phẩm
@@ -296,6 +296,9 @@
       </rPr>
       <t>Station</t>
     </r>
+  </si>
+  <si>
+    <t>SỐ LÔ-ĐIỀU KIỆN</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -460,11 +463,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -489,9 +501,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -517,6 +526,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -551,12 +569,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -565,6 +577,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95556D11-9261-4B81-9C90-713B8110DAF3}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1003,138 +1019,142 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="7" t="s">
+      <c r="M4" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="30"/>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="16"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>10</v>
       </c>
@@ -1152,22 +1172,22 @@
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1181,7 +1201,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1195,7 +1215,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1209,7 +1229,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1223,7 +1243,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1417,7 +1437,9 @@
     <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A1:L1"/>
@@ -1434,7 +1456,6 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.44" top="0.5" bottom="0.55000000000000004" header="0.5" footer="0.32"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/assets/template/month.xlsx
+++ b/assets/template/month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\qc\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA89A73-9880-4EAF-8AE8-02940B441962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2CE5F7-B63A-470E-98E4-4B70EDD81296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,16 +529,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -577,10 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1020,34 +1020,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1064,62 +1064,62 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
@@ -1155,36 +1155,36 @@
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="28" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1438,12 +1438,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="I4:J4"/>
@@ -1456,11 +1450,17 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.44" top="0.5" bottom="0.55000000000000004" header="0.5" footer="0.32"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Bold"Ref. No.: 030030.14/05&amp;RPage &amp;P / &amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Bold"Ref. No.: 030030.15/05&amp;RPage &amp;P / &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/assets/template/month.xlsx
+++ b/assets/template/month.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\qc\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\qc\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2CE5F7-B63A-470E-98E4-4B70EDD81296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Hằng tháng" sheetId="5" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -529,22 +528,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -562,25 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,85 +596,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A011F77-1246-40CC-A806-3D3D33E3BF5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9525"/>
-          <a:ext cx="2076450" cy="386715"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,23 +674,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -806,23 +709,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -998,11 +884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95556D11-9261-4B81-9C90-713B8110DAF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F10" sqref="F10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1020,34 +906,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1064,62 +950,62 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
@@ -1155,36 +1041,36 @@
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1438,6 +1324,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="I4:J4"/>
@@ -1451,17 +1342,11 @@
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.44" top="0.5" bottom="0.55000000000000004" header="0.5" footer="0.32"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Bold"Ref. No.: 030030.15/05&amp;RPage &amp;P / &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>